--- a/biology/Zoologie/Dalytyphloplanida/Dalytyphloplanida.xlsx
+++ b/biology/Zoologie/Dalytyphloplanida/Dalytyphloplanida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dalytyphloplanida sont un sous-ordre de vers plats de l'ordre des Rhabdocoela. Plus de 1100 espèces ont été identifiées. Certaines d'entre elles sont des parasites[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dalytyphloplanida sont un sous-ordre de vers plats de l'ordre des Rhabdocoela. Plus de 1100 espèces ont été identifiées. Certaines d'entre elles sont des parasites.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,10 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Les Dalytyphloplanida se rencontrent sur les cinq continents. On les trouve du Groenland jusqu'à la zone équatoriale[2].
-Habitat
-Les différentes espèces de Dalytyphloplanida vivent aussi bien en environnement marin, qu'en eau douce, ou en milieu terrestre[2].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dalytyphloplanida se rencontrent sur les cinq continents. On les trouve du Groenland jusqu'à la zone équatoriale.
 </t>
         </is>
       </c>
@@ -568,20 +585,128 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes espèces de Dalytyphloplanida vivent aussi bien en environnement marin, qu'en eau douce, ou en milieu terrestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dalytyphloplanida Willems, Wallberg, Jondelius, Littlewood, Backeljau, Schockaert &amp; Artois, 2006[2].
-Synonymes de Dalytyphloplanida
-Dalytyphloplanida a pour synonyme les sous-ordres suivants[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dalytyphloplanida Willems, Wallberg, Jondelius, Littlewood, Backeljau, Schockaert &amp; Artois, 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes de Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida a pour synonyme les sous-ordres suivants :
 Dalyelliida
 Dalyellioida Bresslau, 1928-33
 Typhloplanida
-Typhloplanoida Bresslau, 1928-33
-Sous-taxons et leurs synonymes
-Selon la base de données World Register of Marine Species                               (20 décembre 2023)[2], le sous-ordre des Dalytyphloplanida se décompose en sous-taxons comme indiqué dans l'arbre suivant. Les synonymes sont regroupés en fin de chaque branche de l'arbre.
+Typhloplanoida Bresslau, 1928-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-taxons et leurs synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (20 décembre 2023), le sous-ordre des Dalytyphloplanida se décompose en sous-taxons comme indiqué dans l'arbre suivant. Les synonymes sont regroupés en fin de chaque branche de l'arbre.
 Sous-ordre des Dalytyphloplanida
 infra-ordre des Neodalyellida
 famille des Acholadidae Hickman &amp; Olsen, 1955
@@ -630,9 +755,43 @@
 famille des Hypoblepharinidae Böhmig, 1914
 famille des Luridae Sterrer &amp; Rieger, 1990
 genre Micropalaeosoma Poinar, 2004 †
-le genre Palaeosoma Poinar, 2003 † est synonyme de Micropalaeosoma Poinar, 2004 †
-Liste regroupée des familles valides
-Selon la base de données World Register of Marine Species                               (20 décembre 2023)[2], le sous-ordre des Dalytyphloplanida regroupe les familles suivantes :
+le genre Palaeosoma Poinar, 2003 † est synonyme de Micropalaeosoma Poinar, 2004 †</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste regroupée des familles valides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (20 décembre 2023), le sous-ordre des Dalytyphloplanida regroupe les familles suivantes :
 famille des Acholadidae Hickman &amp; Olsen, 1955
 famille des Adenorhynchidae Ax &amp; Heller, 1970
 famille des Byrsophlebidae Graff, 1882
@@ -650,9 +809,43 @@
 famille des Temnocephalidae Van Steenkiste, Rivlin, Kahn, Wakeman &amp; Leander, 2021
 famille des Trigonostomidae Graff, 1905
 famille des Typhloplanidae Graff, 1905 (298)
-famille des Umagillidae Wahl, 1910
-Liste des genres valides isolés
-Selon la base de données World Register of Marine Species                               (20 décembre 2023)[2], le sous-ordre des Dalytyphloplanida possède les genres isolés (non affectés à une famille) suivants :
+famille des Umagillidae Wahl, 1910</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des genres valides isolés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (20 décembre 2023), le sous-ordre des Dalytyphloplanida possède les genres isolés (non affectés à une famille) suivants :
 genre Bresslauilla Reisinger, 1929
 genre Eldenia Ax, 2008
 genre Nesite Armonies, 2017
@@ -661,9 +854,43 @@
 genre Aegira Willems, Artois, Vermin, Backeljau &amp; Schockaert, 2005
 genre Brinkmanniella Luther, 1943
 genre Gaziella De Clerck &amp; Schockaert, 1995
-genre Micropalaeosoma Poinar, 2004 †
-Vision phylogénétique
-Selon Turbellarian Taxonomic Database, Version 2.0[3],[4].
+genre Micropalaeosoma Poinar, 2004 †</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalytyphloplanida</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vision phylogénétique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0,.
 </t>
         </is>
       </c>
